--- a/Outputs/PtX_demand_BE.xlsx
+++ b/Outputs/PtX_demand_BE.xlsx
@@ -493,53 +493,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2030</v>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>0.001320830904021828</v>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.0006733173068298376</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>1.319949153382118e-09</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0002562620300817</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2030</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.001320830904021828</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0.0005746595190444044</v>
+      </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.0006733173068298376</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>1.319949153382118e-09</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0002562620300817</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -547,7 +549,7 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.0005746595190444044</v>
+        <v>0.01724960048656591</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -560,16 +562,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2030</v>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>0.01724960048656591</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -581,7 +581,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -589,18 +589,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.001682937521604566</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0001908426173548548</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>6.247594833958614e-05</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -608,24 +614,18 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0.001682937521604566</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0001908426173548548</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>6.247594833958614e-05</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -634,17 +634,27 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.0121057559488082</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0001565817650843</v>
+      </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0.0100167268732999</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0001378259859298</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0147389595097205</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -652,28 +662,20 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.0121057559488082</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0001565817650843</v>
-      </c>
+      <c r="E9" t="n">
+        <v>0.009530239754080938</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>0.0100167268732999</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0001378259859298</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0147389595097205</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -682,7 +684,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.009530239754080938</v>
+        <v>0.001287357020542394</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -694,74 +696,92 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>0.001320830904021828</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01782426000561031</v>
+      </c>
       <c r="E11" t="n">
-        <v>0.001287357020542394</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>0.0125005342962279</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01296991587299289</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0001565817650843</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.319949153382118e-09</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.01033546485172119</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0001378259859298</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0147389595097205</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>2040</v>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>0.0007699912315037223</v>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.0032446492163511</v>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>1.104943230790658e-07</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.00039888519326</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2040</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.0007699912315037223</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>0.0006650125840341093</v>
+      </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.0032446492163511</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>1.104943230790658e-07</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.00039888519326</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -769,7 +789,7 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>0.0006650125840341093</v>
+        <v>0.01996173562425724</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -782,28 +802,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>0.01996173562425724</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>1.172278881334068e-09</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>1.348539797076409e-10</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -811,14 +833,16 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.006636213589168527</v>
+      </c>
       <c r="F16" t="n">
-        <v>1.172278881334068e-09</v>
+        <v>0.0002387853475226028</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>1.348539797076409e-10</v>
+        <v>9.307475188124296e-05</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -826,7 +850,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -834,24 +858,18 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0.006636213589168527</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0002387853475226028</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>9.307475188124296e-05</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -860,17 +878,27 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.0052083347968843</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0002552541091374</v>
+      </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.006796991789453701</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0001674362039728</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0167984208075965</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -878,28 +906,20 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0.0052083347968843</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0002552541091374</v>
-      </c>
+      <c r="E19" t="n">
+        <v>0.009637146075907483</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>0.006796991789453701</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0001674362039728</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.0167984208075965</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -908,7 +928,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.009637146075907483</v>
+        <v>0.005002473500588242</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -920,28 +940,44 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>0.0007699912315037223</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.02062674820829135</v>
+      </c>
       <c r="E21" t="n">
-        <v>0.005002473500588242</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>0.02127583316566425</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.008691770533036883</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0002552541091374</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.104943230790658e-07</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.007288951869448924</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0001674362039728</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0167984208075965</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -950,42 +986,44 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.0044961530839154</v>
+      </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>1.872789774787037e-07</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0006419635623230999</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2050</v>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>0.0007454124900373706</v>
+      </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.0044961530839154</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>1.872789774787037e-07</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.0006419635623230999</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -993,7 +1031,7 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>0.0007454124900373706</v>
+        <v>0.02237510599706498</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -1006,28 +1044,30 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2050</v>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
-        <v>0.02237510599706498</v>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>9.608903255707088e-09</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>4.324193808417835e-09</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1035,14 +1075,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0.0170577264211996</v>
+      </c>
       <c r="F26" t="n">
-        <v>9.608903255707088e-09</v>
+        <v>3.907686398659966e-05</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>4.324193808417835e-09</v>
+        <v>2.568515864794106e-05</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1050,7 +1092,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1058,24 +1100,28 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>0.0170577264211996</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>3.907686398659966e-05</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
+        <v>4.032195576045224e-11</v>
+      </c>
+      <c r="G27" t="n">
+        <v>9.399629201348807e-12</v>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>2.568515864794106e-05</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1.065056424453761e-10</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.146741377717958e-12</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.237872620735417e-09</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1085,26 +1131,26 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>4.032195576045224e-11</v>
+        <v>0.0005755361812726032</v>
       </c>
       <c r="G28" t="n">
-        <v>9.399629201348807e-12</v>
+        <v>0.0004560942777006</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>1.065056424453761e-10</v>
+        <v>0.0017670319887264</v>
       </c>
       <c r="J28" t="n">
-        <v>1.146741377717958e-12</v>
+        <v>0.0002153494726861</v>
       </c>
       <c r="K28" t="n">
-        <v>1.237872620735417e-09</v>
+        <v>0.0238728967774038</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1112,28 +1158,20 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>0.0005755361812726032</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.0004560942777006</v>
-      </c>
+      <c r="E29" t="n">
+        <v>0.009715091483629127</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
-        <v>0.0017670319887264</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.0002153494726861</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.0238728967774038</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1142,7 +1180,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.009715091483629127</v>
+        <v>0.0121545750897348</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1154,23 +1192,37 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>0.02312051848710235</v>
+      </c>
       <c r="E31" t="n">
-        <v>0.0121545750897348</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>0.03892739299456352</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.005110775778399814</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0004560942871002292</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.872789774787037e-07</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.002434685140396892</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0002153494738328414</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.02387289801527642</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Outputs/PtX_demand_BE.xlsx
+++ b/Outputs/PtX_demand_BE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,7 +606,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -615,17 +615,21 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.0025920864393685</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0.0002163464135149861</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -634,27 +638,17 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.0121057559488082</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0001565817650843</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>0.0100167268732999</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0001378259859298</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.0147389595097205</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -662,20 +656,30 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0.009530239754080938</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.0121057559488082</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0001565817650843</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0036115082661978</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0100167268732999</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0001378259859298</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0147389595097205</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -683,174 +687,178 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0.001287357020542394</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.1213813864701164</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0011027594546511</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0330072382505642</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0645689115726879</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0008342609827941</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.1425875796848799</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.001320830904021828</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.01782426000561031</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.0125005342962279</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.01296991587299289</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0001565817650843</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.319949153382118e-09</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.01033546485172119</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.0001378259859298</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.0147389595097205</v>
-      </c>
+        <v>0.009530239754080938</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0007699912315037223</v>
-      </c>
+        <v>2030</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.0032446492163511</v>
-      </c>
+      <c r="E12" t="n">
+        <v>0.001287357020542394</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>1.104943230790658e-07</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.00039888519326</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>2030</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.001320830904021828</v>
+      </c>
       <c r="D13" t="n">
-        <v>0.0006650125840341093</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>0.01782426000561031</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0125005342962279</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1369433887824778</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0012593412197354</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.03661874783671115</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.07512072283792408</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0009720869687239</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1573265391946004</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2040</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>0.01996173562425724</v>
-      </c>
+      <c r="C14" t="n">
+        <v>0.0007699912315037223</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.0032446492163511</v>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>1.104943230790658e-07</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.00039888519326</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0.0006650125840341093</v>
+      </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>1.172278881334068e-09</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>1.348539797076409e-10</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2040</v>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0.006636213589168527</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0002387853475226028</v>
-      </c>
+      <c r="D16" t="n">
+        <v>0.01996173562425724</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>9.307475188124296e-05</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -859,17 +867,21 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>1.172278881334068e-09</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>1.348539797076409e-10</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -877,28 +889,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.006636213589168527</v>
+      </c>
       <c r="F18" t="n">
-        <v>0.0052083347968843</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.0002552541091374</v>
-      </c>
+        <v>0.0002387853475226028</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.006796991789453701</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.0001674362039728</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.0167984208075965</v>
-      </c>
+        <v>9.307475188124296e-05</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -906,20 +914,22 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0.009637146075907483</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.0013916643288914</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.0002331063255768042</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -927,9 +937,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0.005002473500588242</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -940,32 +948,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.0007699912315037223</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.02062674820829135</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.02127583316566425</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.008691770533036883</v>
+        <v>0.0052083347968843</v>
       </c>
       <c r="G21" t="n">
         <v>0.0002552541091374</v>
       </c>
       <c r="H21" t="n">
-        <v>1.104943230790658e-07</v>
+        <v>0.0043964951972551</v>
       </c>
       <c r="I21" t="n">
-        <v>0.007288951869448924</v>
+        <v>0.006796991789453701</v>
       </c>
       <c r="J21" t="n">
         <v>0.0001674362039728</v>
@@ -977,42 +979,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.0044961530839154</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>0.0332671969384972</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0011855277240352</v>
+      </c>
       <c r="H22" t="n">
-        <v>1.872789774787037e-07</v>
+        <v>0.0311196580530564</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0006419635623230999</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>0.0296940684743833</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0007403319850265</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.137907734043315</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
-        <v>0.0007454124900373706</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0.009637146075907483</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1023,17 +1031,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
-        <v>0.02237510599706498</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.005002473500588242</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1044,30 +1052,44 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+        <v>2040</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0007699912315037223</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.02062674820829135</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.02127583316566425</v>
+      </c>
       <c r="F25" t="n">
-        <v>9.608903255707088e-09</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+        <v>0.04335063180042549</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0014407818331726</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.03551626374463458</v>
+      </c>
       <c r="I25" t="n">
-        <v>4.324193808417835e-09</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>0.03721612666940903</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0009077681889993</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.1547061548509115</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1075,16 +1097,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>0.0170577264211996</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>3.907686398659966e-05</v>
+        <v>0.0044961530839154</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>1.872789774787037e-07</v>
+      </c>
       <c r="I26" t="n">
-        <v>2.568515864794106e-05</v>
+        <v>0.0006419635623230999</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1092,65 +1114,49 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2050</v>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0.0007454124900373706</v>
+      </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>4.032195576045224e-11</v>
-      </c>
-      <c r="G27" t="n">
-        <v>9.399629201348807e-12</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="n">
-        <v>1.065056424453761e-10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.146741377717958e-12</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1.237872620735417e-09</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2050</v>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>0.02237510599706498</v>
+      </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>0.0005755361812726032</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0004560942777006</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="n">
-        <v>0.0017670319887264</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.0002153494726861</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.0238728967774038</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1158,20 +1164,22 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>0.009715091483629127</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>9.608903255707088e-09</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>4.324193808417835e-09</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1180,48 +1188,210 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.0121545750897348</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>0.0170577264211996</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.907686398659966e-05</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>2.568515864794106e-05</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="n">
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>7.956341905744166e-05</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>8.155257579861415e-05</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Synthetic Liquids</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>4.032195576045224e-11</v>
+      </c>
+      <c r="G32" t="n">
+        <v>9.399629201348807e-12</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.693850135839552e-10</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.065056424453761e-10</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.146741377717958e-12</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.237872620735417e-09</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Biogenic Liquids</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0.0005755361812726032</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0004560942777006</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0057584614714113</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0017670319887264</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0002153494726861</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0238728967774038</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fossil Liquids</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.0025021761359893</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0010692957995614</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0282215235907074</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0051971537488473</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0006372414206017</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.1280942269072756</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Biomass [Solid]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0.009715091483629127</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Renewable Energy Carrier</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0.0121545750897348</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Overall Demand</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
         <v>0.02312051848710235</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E37" t="n">
         <v>0.03892739299456352</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.005110775778399814</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0004560942871002292</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1.872789774787037e-07</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.002434685140396892</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.0002153494738328414</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.02387289801527642</v>
+      <c r="F37" t="n">
+        <v>0.007692515333446556</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.001525390086661629</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.03398017251048119</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.007713391465042805</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.0008525908944345414</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.151967124922552</v>
       </c>
     </row>
   </sheetData>
